--- a/Code/Results/Cases/Case_8_14/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_8_14/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.408089097298557</v>
+        <v>3.417672790056997</v>
       </c>
       <c r="C2">
-        <v>0.6224827254384309</v>
+        <v>0.6587196598174785</v>
       </c>
       <c r="D2">
-        <v>0.06152202684528163</v>
+        <v>0.06326006655152128</v>
       </c>
       <c r="E2">
-        <v>0.05901787907721801</v>
+        <v>0.05907834102329979</v>
       </c>
       <c r="F2">
-        <v>0.4866263315435972</v>
+        <v>0.4489527329273315</v>
       </c>
       <c r="G2">
-        <v>0.0007999391761885783</v>
+        <v>0.0003451871625923739</v>
       </c>
       <c r="H2">
-        <v>2.289948712386192E-05</v>
+        <v>1.043579892390234E-05</v>
       </c>
       <c r="I2">
-        <v>0.0004659498924870498</v>
+        <v>0.0005825882581440567</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.2728409840491715</v>
+        <v>0.2409523799968767</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1341233063298812</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.05639238107124633</v>
       </c>
       <c r="N2">
-        <v>0.3605236264095169</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.369318580913756</v>
       </c>
       <c r="Q2">
-        <v>1.408863158930643</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1.273657213771941</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.969974032690232</v>
+        <v>2.98023821113344</v>
       </c>
       <c r="C3">
-        <v>0.5584379520989842</v>
+        <v>0.5869590121959334</v>
       </c>
       <c r="D3">
-        <v>0.05541157593408741</v>
+        <v>0.05603499003373713</v>
       </c>
       <c r="E3">
-        <v>0.05634918257359622</v>
+        <v>0.05738608716825766</v>
       </c>
       <c r="F3">
-        <v>0.4570571551198199</v>
+        <v>0.4219144201889478</v>
       </c>
       <c r="G3">
-        <v>0.0008032588575939137</v>
+        <v>0.0011361143462967</v>
       </c>
       <c r="H3">
-        <v>0.0003399783635071874</v>
+        <v>7.495638951049433E-05</v>
       </c>
       <c r="I3">
-        <v>0.0007744030657272916</v>
+        <v>0.0005281749402832325</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2797139194701685</v>
+        <v>0.2479781424100693</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.139796436855347</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.05714005896246466</v>
       </c>
       <c r="N3">
-        <v>0.3170719535822997</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.3253268650769456</v>
       </c>
       <c r="Q3">
-        <v>1.356229215639772</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1.226335003004365</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.700563190076423</v>
+        <v>2.711031246408595</v>
       </c>
       <c r="C4">
-        <v>0.5192993580870677</v>
+        <v>0.5432525364780076</v>
       </c>
       <c r="D4">
-        <v>0.051668345006469</v>
+        <v>0.05162108575309787</v>
       </c>
       <c r="E4">
-        <v>0.05468025768407703</v>
+        <v>0.05631821860226705</v>
       </c>
       <c r="F4">
-        <v>0.4395082893790772</v>
+        <v>0.4056242150817866</v>
       </c>
       <c r="G4">
-        <v>0.0008053688782758837</v>
+        <v>0.001875961208570601</v>
       </c>
       <c r="H4">
-        <v>0.0007351234475226898</v>
+        <v>0.0002630074952878481</v>
       </c>
       <c r="I4">
-        <v>0.001203927371236091</v>
+        <v>0.0006659928028391882</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2843144786281648</v>
+        <v>0.2525185250021522</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1434328781552097</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.05812696944441331</v>
       </c>
       <c r="N4">
-        <v>0.2904344899874474</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.2983583189513723</v>
       </c>
       <c r="Q4">
-        <v>1.325787691072506</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1.198155693217288</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.590641433129406</v>
+        <v>2.601143274154765</v>
       </c>
       <c r="C5">
-        <v>0.5041867720252071</v>
+        <v>0.5263218212544984</v>
       </c>
       <c r="D5">
-        <v>0.0502142224985036</v>
+        <v>0.0498967113604678</v>
       </c>
       <c r="E5">
-        <v>0.05395022117787907</v>
+        <v>0.05583749689625161</v>
       </c>
       <c r="F5">
-        <v>0.431910840819512</v>
+        <v>0.3985059115955849</v>
       </c>
       <c r="G5">
-        <v>0.0008062515423521435</v>
+        <v>0.002240074976048848</v>
       </c>
       <c r="H5">
-        <v>0.0009450054405173436</v>
+        <v>0.0003756358843071128</v>
       </c>
       <c r="I5">
-        <v>0.001506727582732736</v>
+        <v>0.000844218595831947</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2858961935609639</v>
+        <v>0.254080668348287</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1447698677141922</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.05858488445897603</v>
       </c>
       <c r="N5">
-        <v>0.279683255967953</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.2874696261417</v>
       </c>
       <c r="Q5">
-        <v>1.31189093826481</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1.185076608756077</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.572361383644136</v>
+        <v>2.582864260885344</v>
       </c>
       <c r="C6">
-        <v>0.502656638871116</v>
+        <v>0.5244921920718468</v>
       </c>
       <c r="D6">
-        <v>0.05005819271002565</v>
+        <v>0.04969555123474123</v>
       </c>
       <c r="E6">
-        <v>0.05377740795591279</v>
+        <v>0.05571075023614025</v>
       </c>
       <c r="F6">
-        <v>0.4299373992492264</v>
+        <v>0.3966539148040908</v>
       </c>
       <c r="G6">
-        <v>0.0008064047346061422</v>
+        <v>0.002306629203937718</v>
       </c>
       <c r="H6">
-        <v>0.000984088120689619</v>
+        <v>0.0003972521208001067</v>
       </c>
       <c r="I6">
-        <v>0.001654102041746874</v>
+        <v>0.0009844804261645024</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2856949904347488</v>
+        <v>0.2539261437782798</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1447715595437753</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.05857652679607206</v>
       </c>
       <c r="N6">
-        <v>0.27801658452195</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.2857759791688466</v>
       </c>
       <c r="Q6">
-        <v>1.307243453534738</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1.180719673801093</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.699024456120412</v>
+        <v>2.709412090241926</v>
       </c>
       <c r="C7">
-        <v>0.5217724187281476</v>
+        <v>0.5441376216172671</v>
       </c>
       <c r="D7">
-        <v>0.05188267312680495</v>
+        <v>0.05226659125126787</v>
       </c>
       <c r="E7">
-        <v>0.05453114462399355</v>
+        <v>0.05619945796652015</v>
       </c>
       <c r="F7">
-        <v>0.4374374540136827</v>
+        <v>0.4003689779831774</v>
       </c>
       <c r="G7">
-        <v>0.0008053954603248382</v>
+        <v>0.002110911582336339</v>
       </c>
       <c r="H7">
-        <v>0.0007410042272997241</v>
+        <v>0.0002688999888568189</v>
       </c>
       <c r="I7">
-        <v>0.001447722062478007</v>
+        <v>0.0009486002077334632</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2830564117232477</v>
+        <v>0.2500800638073741</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1421725141734775</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.05755359517654046</v>
       </c>
       <c r="N7">
-        <v>0.2906133060741212</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.2983206358682224</v>
       </c>
       <c r="Q7">
-        <v>1.319137424257903</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1.181240784105185</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.257016818820091</v>
+        <v>3.266603746318083</v>
       </c>
       <c r="C8">
-        <v>0.6039441308139999</v>
+        <v>0.6322327362406099</v>
       </c>
       <c r="D8">
-        <v>0.05972697397100291</v>
+        <v>0.06256518969659197</v>
       </c>
       <c r="E8">
-        <v>0.057920745005279</v>
+        <v>0.05838943568311805</v>
       </c>
       <c r="F8">
-        <v>0.4736956401458983</v>
+        <v>0.4261968688981241</v>
       </c>
       <c r="G8">
-        <v>0.0008010872481283118</v>
+        <v>0.002013346022244455</v>
       </c>
       <c r="H8">
-        <v>9.036824867725279E-05</v>
+        <v>1.305307610666162E-06</v>
       </c>
       <c r="I8">
-        <v>0.0008053315522031923</v>
+        <v>0.0008593524652553697</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.2734546620240224</v>
+        <v>0.2376273414762586</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1333653817299414</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.05491550216816243</v>
       </c>
       <c r="N8">
-        <v>0.3459635732226758</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.353877261808222</v>
       </c>
       <c r="Q8">
-        <v>1.381777751399738</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1.214045661730609</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.348976989839059</v>
+        <v>4.355264426674466</v>
       </c>
       <c r="C9">
-        <v>0.7619919517386791</v>
+        <v>0.8088103774817625</v>
       </c>
       <c r="D9">
-        <v>0.07477429511119738</v>
+        <v>0.08093650565496091</v>
       </c>
       <c r="E9">
-        <v>0.06459582586142254</v>
+        <v>0.06263183123088556</v>
       </c>
       <c r="F9">
-        <v>0.5535885444222188</v>
+        <v>0.4948507105888496</v>
       </c>
       <c r="G9">
-        <v>0.000793172067583614</v>
+        <v>0.001706864795944618</v>
       </c>
       <c r="H9">
-        <v>0.000532233973505658</v>
+        <v>0.0007363318106131667</v>
       </c>
       <c r="I9">
-        <v>0.001249725489198106</v>
+        <v>0.001714826493184773</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.260088070409882</v>
+        <v>0.2218350885741387</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1207206781099472</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.05567505614262025</v>
       </c>
       <c r="N9">
-        <v>0.4544137011238547</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.4634514575125905</v>
       </c>
       <c r="Q9">
-        <v>1.532322573521952</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1.335373297442175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.150594546613888</v>
+        <v>5.152289628064523</v>
       </c>
       <c r="C10">
-        <v>0.8908817524778954</v>
+        <v>0.9412464213588123</v>
       </c>
       <c r="D10">
-        <v>0.08727661009937293</v>
+        <v>0.0987146876676448</v>
       </c>
       <c r="E10">
-        <v>0.06696879145727053</v>
+        <v>0.06360493655292832</v>
       </c>
       <c r="F10">
-        <v>0.6055753163241278</v>
+        <v>0.5197709449209569</v>
       </c>
       <c r="G10">
-        <v>0.000787763056745161</v>
+        <v>0.009908841105866983</v>
       </c>
       <c r="H10">
-        <v>0.002161363822597018</v>
+        <v>0.002223493880240568</v>
       </c>
       <c r="I10">
-        <v>0.00313629711856489</v>
+        <v>0.003446666523839959</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.2464382517748653</v>
+        <v>0.2005241061380403</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1083580728487235</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.05441219737455327</v>
       </c>
       <c r="N10">
-        <v>0.514594140429935</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.52279584382444</v>
       </c>
       <c r="Q10">
-        <v>1.620301726333054</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1.342711127303829</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.511182734670399</v>
+        <v>5.510120892294253</v>
       </c>
       <c r="C11">
-        <v>1.046148589119383</v>
+        <v>1.068746924258051</v>
       </c>
       <c r="D11">
-        <v>0.1049834944696144</v>
+        <v>0.1240447189976379</v>
       </c>
       <c r="E11">
-        <v>0.05521488627947768</v>
+        <v>0.05305890901692356</v>
       </c>
       <c r="F11">
-        <v>0.5455699867341792</v>
+        <v>0.4335235246834301</v>
       </c>
       <c r="G11">
-        <v>0.0007859956687168733</v>
+        <v>0.04375263264741136</v>
       </c>
       <c r="H11">
-        <v>0.0207591699017442</v>
+        <v>0.02067340979743548</v>
       </c>
       <c r="I11">
-        <v>0.004349504437312746</v>
+        <v>0.004543241878100623</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.1966080747338381</v>
+        <v>0.1533372906575483</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.0909587900836426</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.03766529891176695</v>
       </c>
       <c r="N11">
-        <v>0.3807483167144738</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.3841544019899175</v>
       </c>
       <c r="Q11">
-        <v>1.392638324023864</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>1.045501545166104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.646335346612716</v>
+        <v>5.644405154594779</v>
       </c>
       <c r="C12">
-        <v>1.152914291916971</v>
+        <v>1.154400406608943</v>
       </c>
       <c r="D12">
-        <v>0.1179601432126987</v>
+        <v>0.1408383540636038</v>
       </c>
       <c r="E12">
-        <v>0.05548101665358285</v>
+        <v>0.05367666815428773</v>
       </c>
       <c r="F12">
-        <v>0.488888045797701</v>
+        <v>0.3733695752471249</v>
       </c>
       <c r="G12">
-        <v>0.0007855280908280471</v>
+        <v>0.06805850835677774</v>
       </c>
       <c r="H12">
-        <v>0.05927127826845435</v>
+        <v>0.05914711922582683</v>
       </c>
       <c r="I12">
-        <v>0.004524182567899437</v>
+        <v>0.004642178119635965</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.1650311401278355</v>
+        <v>0.1305001253215687</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.08370042881407924</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.02824676226074008</v>
       </c>
       <c r="N12">
-        <v>0.272943359031018</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.2739659764936846</v>
       </c>
       <c r="Q12">
-        <v>1.202881435178881</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0.856696040901312</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.61430846139308</v>
+        <v>5.613144316564103</v>
       </c>
       <c r="C13">
-        <v>1.231599021195052</v>
+        <v>1.221785394329004</v>
       </c>
       <c r="D13">
-        <v>0.1282713922080632</v>
+        <v>0.14997191991894</v>
       </c>
       <c r="E13">
-        <v>0.06453452371099999</v>
+        <v>0.06290541961468321</v>
       </c>
       <c r="F13">
-        <v>0.4282400901475114</v>
+        <v>0.3305589136628839</v>
       </c>
       <c r="G13">
-        <v>0.0007860553884856107</v>
+        <v>0.06204256620020132</v>
       </c>
       <c r="H13">
-        <v>0.1146763292793764</v>
+        <v>0.114595850323326</v>
       </c>
       <c r="I13">
-        <v>0.004194844168178946</v>
+        <v>0.004372908400040565</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.1433615215792763</v>
+        <v>0.1206878922719836</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.08112041499890758</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.02317460299712337</v>
       </c>
       <c r="N13">
-        <v>0.1799895208737965</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.1802370044755079</v>
       </c>
       <c r="Q13">
-        <v>1.020594176307526</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.7362355884990421</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.516122032785859</v>
+        <v>5.516160285520527</v>
       </c>
       <c r="C14">
-        <v>1.275221789424052</v>
+        <v>1.262098616104822</v>
       </c>
       <c r="D14">
-        <v>0.1344171376602503</v>
+        <v>0.1528355181610976</v>
       </c>
       <c r="E14">
-        <v>0.07610398267420493</v>
+        <v>0.0746550623054052</v>
       </c>
       <c r="F14">
-        <v>0.384139455755907</v>
+        <v>0.3066598808989198</v>
       </c>
       <c r="G14">
-        <v>0.0007868735866799587</v>
+        <v>0.04524369893150748</v>
       </c>
       <c r="H14">
-        <v>0.1637252121896751</v>
+        <v>0.1637007108274418</v>
       </c>
       <c r="I14">
-        <v>0.003834775657434619</v>
+        <v>0.00411897108916115</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.1332713006803861</v>
+        <v>0.1183997253677647</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.08070490705902711</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.02133960771258137</v>
       </c>
       <c r="N14">
-        <v>0.1247464699393674</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.1249730145164989</v>
       </c>
       <c r="Q14">
-        <v>0.8974105547924438</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.6760347729566973</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.456495291011151</v>
+        <v>5.457142550028436</v>
       </c>
       <c r="C15">
-        <v>1.280104806417626</v>
+        <v>1.268397691329085</v>
       </c>
       <c r="D15">
-        <v>0.1353101446016751</v>
+        <v>0.1519043040589878</v>
       </c>
       <c r="E15">
-        <v>0.07943211068390355</v>
+        <v>0.07816256455591031</v>
       </c>
       <c r="F15">
-        <v>0.3717755545682664</v>
+        <v>0.302620648229535</v>
       </c>
       <c r="G15">
-        <v>0.0007873019975955433</v>
+        <v>0.03676849296777718</v>
       </c>
       <c r="H15">
-        <v>0.1760994258780499</v>
+        <v>0.1761007007094264</v>
       </c>
       <c r="I15">
-        <v>0.003753291521661595</v>
+        <v>0.004107667009495053</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.1320000236542906</v>
+        <v>0.1190285630924668</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.08091694744921307</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.02131434249585817</v>
       </c>
       <c r="N15">
-        <v>0.1122655657375873</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.1126338604661044</v>
       </c>
       <c r="Q15">
-        <v>0.8659813676858334</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.6688481010934879</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.116686270501134</v>
+        <v>5.120185618008463</v>
       </c>
       <c r="C16">
-        <v>1.207101704170327</v>
+        <v>1.214407617757274</v>
       </c>
       <c r="D16">
-        <v>0.127575351908547</v>
+        <v>0.1360871310705392</v>
       </c>
       <c r="E16">
-        <v>0.07618147611105819</v>
+        <v>0.07625411589360276</v>
       </c>
       <c r="F16">
-        <v>0.3608066094618891</v>
+        <v>0.3208751585245722</v>
       </c>
       <c r="G16">
-        <v>0.0007895113396697866</v>
+        <v>0.008444855002990082</v>
       </c>
       <c r="H16">
-        <v>0.162686654870086</v>
+        <v>0.162782108569786</v>
       </c>
       <c r="I16">
-        <v>0.002997330580786439</v>
+        <v>0.003554290180547426</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.1410027255930757</v>
+        <v>0.1297274410144622</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.08409625520021802</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.0247902813359504</v>
       </c>
       <c r="N16">
-        <v>0.1083684119717745</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.1099604027379826</v>
       </c>
       <c r="Q16">
-        <v>0.8617470443428061</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.7435599581854007</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.908917963479951</v>
+        <v>4.913786799661978</v>
       </c>
       <c r="C17">
-        <v>1.12812754861082</v>
+        <v>1.148080917509731</v>
       </c>
       <c r="D17">
-        <v>0.1183851493289438</v>
+        <v>0.123840413921144</v>
       </c>
       <c r="E17">
-        <v>0.06668500497228713</v>
+        <v>0.06737252729329413</v>
       </c>
       <c r="F17">
-        <v>0.3755934073680862</v>
+        <v>0.3451829550850789</v>
       </c>
       <c r="G17">
-        <v>0.0007907786309067534</v>
+        <v>0.00241102411093852</v>
       </c>
       <c r="H17">
-        <v>0.1245718830874694</v>
+        <v>0.1246917149637028</v>
       </c>
       <c r="I17">
-        <v>0.002670424472418276</v>
+        <v>0.003303102784283141</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.1528696239470673</v>
+        <v>0.1405161923664027</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.08784035997544226</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.02846509328768398</v>
       </c>
       <c r="N17">
-        <v>0.132566061216373</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.1351753143335017</v>
       </c>
       <c r="Q17">
-        <v>0.9228354305645041</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0.8287615746494339</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.79055858572184</v>
+        <v>4.795967977085581</v>
       </c>
       <c r="C18">
-        <v>1.035109974358704</v>
+        <v>1.067240495717755</v>
       </c>
       <c r="D18">
-        <v>0.1070719086705907</v>
+        <v>0.1118363205521149</v>
       </c>
       <c r="E18">
-        <v>0.05567591400714811</v>
+        <v>0.05631713576613073</v>
       </c>
       <c r="F18">
-        <v>0.4166492607049008</v>
+        <v>0.3852359331999509</v>
       </c>
       <c r="G18">
-        <v>0.0007913180060211416</v>
+        <v>0.001030632708098</v>
       </c>
       <c r="H18">
-        <v>0.07168471466712845</v>
+        <v>0.07181671201642814</v>
       </c>
       <c r="I18">
-        <v>0.002329540762032067</v>
+        <v>0.002939677772621607</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.1718613312827806</v>
+        <v>0.1558183396773192</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.09357434526922237</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.03394774015900381</v>
       </c>
       <c r="N18">
-        <v>0.1929385574727647</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.1969705511252329</v>
       </c>
       <c r="Q18">
-        <v>1.057025782598302</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0.9566460780629313</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.752269958574516</v>
+        <v>4.757597958042879</v>
       </c>
       <c r="C19">
-        <v>0.9479273147922243</v>
+        <v>0.9916049912404503</v>
       </c>
       <c r="D19">
-        <v>0.09604400579762284</v>
+        <v>0.1012982941001468</v>
       </c>
       <c r="E19">
-        <v>0.05171776363781089</v>
+        <v>0.05150065040137686</v>
       </c>
       <c r="F19">
-        <v>0.4749509288779095</v>
+        <v>0.4360205236683328</v>
       </c>
       <c r="G19">
-        <v>0.0007911916424997895</v>
+        <v>0.000819963468949414</v>
       </c>
       <c r="H19">
-        <v>0.02666236707381842</v>
+        <v>0.02681585221052529</v>
       </c>
       <c r="I19">
-        <v>0.002504436221391515</v>
+        <v>0.003141488333149312</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.1983285328722406</v>
+        <v>0.175977617660017</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1012051205530131</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.04148375355891254</v>
       </c>
       <c r="N19">
-        <v>0.2929642324813813</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.2989833702199434</v>
       </c>
       <c r="Q19">
-        <v>1.241269935810408</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>1.114763828369561</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.939805568914039</v>
+        <v>4.943232182651059</v>
       </c>
       <c r="C20">
-        <v>0.8660680147328321</v>
+        <v>0.921493194167482</v>
       </c>
       <c r="D20">
-        <v>0.08480502528063028</v>
+        <v>0.09312582975983474</v>
       </c>
       <c r="E20">
-        <v>0.06583806551752858</v>
+        <v>0.06284490520955277</v>
       </c>
       <c r="F20">
-        <v>0.5851470848744498</v>
+        <v>0.5188207563471892</v>
       </c>
       <c r="G20">
-        <v>0.0007892024622902735</v>
+        <v>0.003094751240827698</v>
       </c>
       <c r="H20">
-        <v>0.001615162699255546</v>
+        <v>0.001759936000034212</v>
       </c>
       <c r="I20">
-        <v>0.003254479155413215</v>
+        <v>0.003826486572030774</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.2458539099853496</v>
+        <v>0.2068701329975582</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1117624858312869</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.05499220950668082</v>
       </c>
       <c r="N20">
-        <v>0.4989479748234089</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.5080691741393792</v>
       </c>
       <c r="Q20">
-        <v>1.57520933299179</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1.358396163313188</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.556034263260528</v>
+        <v>5.553256789838827</v>
       </c>
       <c r="C21">
-        <v>0.948521016483312</v>
+        <v>0.9774365628535691</v>
       </c>
       <c r="D21">
-        <v>0.09236315060028488</v>
+        <v>0.1144638262506703</v>
       </c>
       <c r="E21">
-        <v>0.0713752500233511</v>
+        <v>0.06735218921612507</v>
       </c>
       <c r="F21">
-        <v>0.642647731872529</v>
+        <v>0.4925551940001469</v>
       </c>
       <c r="G21">
-        <v>0.0007850172471640479</v>
+        <v>0.06501655912741455</v>
       </c>
       <c r="H21">
-        <v>0.003213720462174607</v>
+        <v>0.002998580362046366</v>
       </c>
       <c r="I21">
-        <v>0.005138175731848271</v>
+        <v>0.005220998276299404</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.2454035497494225</v>
+        <v>0.1777525141818028</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.0986609937496894</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.04875820267835707</v>
       </c>
       <c r="N21">
-        <v>0.5763970973003865</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.5813884809707446</v>
       </c>
       <c r="Q21">
-        <v>1.699536260747379</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1.222421579681537</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.959087760819671</v>
+        <v>5.951782143495507</v>
       </c>
       <c r="C22">
-        <v>1.004226526123887</v>
+        <v>1.012941971973731</v>
       </c>
       <c r="D22">
-        <v>0.09764037019272109</v>
+        <v>0.1301671790605496</v>
       </c>
       <c r="E22">
-        <v>0.07396436131731221</v>
+        <v>0.06958855921324769</v>
       </c>
       <c r="F22">
-        <v>0.6788123087169708</v>
+        <v>0.4708771430169421</v>
       </c>
       <c r="G22">
-        <v>0.000782361340410647</v>
+        <v>0.1548246061438405</v>
       </c>
       <c r="H22">
-        <v>0.00457608334168419</v>
+        <v>0.004019554874454656</v>
       </c>
       <c r="I22">
-        <v>0.006410532358127163</v>
+        <v>0.005965213534966374</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.2444258478408443</v>
+        <v>0.1584969397717941</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.09091040495146085</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.04414773407129502</v>
       </c>
       <c r="N22">
-        <v>0.6164684285134712</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.6182010157561706</v>
       </c>
       <c r="Q22">
-        <v>1.77599273882862</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1.12245584533099</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.74402356583272</v>
+        <v>5.739380740691161</v>
       </c>
       <c r="C23">
-        <v>0.9711330147035824</v>
+        <v>0.994887240749506</v>
       </c>
       <c r="D23">
-        <v>0.09452943668610203</v>
+        <v>0.1199748434598575</v>
       </c>
       <c r="E23">
-        <v>0.07274257264471728</v>
+        <v>0.06843233000327764</v>
       </c>
       <c r="F23">
-        <v>0.6617309595379766</v>
+        <v>0.4921546969259936</v>
       </c>
       <c r="G23">
-        <v>0.0007837611541854361</v>
+        <v>0.0886513716957964</v>
       </c>
       <c r="H23">
-        <v>0.003827742829111247</v>
+        <v>0.003476776317123564</v>
       </c>
       <c r="I23">
-        <v>0.005424911605143912</v>
+        <v>0.005229225632017886</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.2463325585177429</v>
+        <v>0.1720327780210376</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.09597141110242191</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.04810916083356176</v>
       </c>
       <c r="N23">
-        <v>0.5946669032097702</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.5987123978061675</v>
       </c>
       <c r="Q23">
-        <v>1.742437698805645</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1.205375994998292</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.930275584873527</v>
+        <v>4.933707100070876</v>
       </c>
       <c r="C24">
-        <v>0.8518238391131661</v>
+        <v>0.9082083823846574</v>
       </c>
       <c r="D24">
-        <v>0.08325501211813702</v>
+        <v>0.09149046466426114</v>
       </c>
       <c r="E24">
-        <v>0.06785487522328992</v>
+        <v>0.0646255948720782</v>
       </c>
       <c r="F24">
-        <v>0.5953591311940798</v>
+        <v>0.5281726140059178</v>
       </c>
       <c r="G24">
-        <v>0.000789188234593958</v>
+        <v>0.002928114402164006</v>
       </c>
       <c r="H24">
-        <v>0.001559242226143676</v>
+        <v>0.001707146042333574</v>
       </c>
       <c r="I24">
-        <v>0.002802919605183973</v>
+        <v>0.003277101236051294</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.2523495156592759</v>
+        <v>0.2120547407425413</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1136947723237292</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.05695136040192139</v>
       </c>
       <c r="N24">
-        <v>0.5130778958560711</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.5225390358178856</v>
       </c>
       <c r="Q24">
-        <v>1.609381598130085</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1.389071547940318</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.053562314446481</v>
+        <v>4.061136894498134</v>
       </c>
       <c r="C25">
-        <v>0.7239854029299124</v>
+        <v>0.7680314402711588</v>
       </c>
       <c r="D25">
-        <v>0.07112756018342026</v>
+        <v>0.0757292028152321</v>
       </c>
       <c r="E25">
-        <v>0.06256289842953322</v>
+        <v>0.0612632895901708</v>
       </c>
       <c r="F25">
-        <v>0.5277936063779407</v>
+        <v>0.4773685085634654</v>
       </c>
       <c r="G25">
-        <v>0.0007952780494947128</v>
+        <v>0.0006343925732696931</v>
       </c>
       <c r="H25">
-        <v>0.0002073892248424247</v>
+        <v>0.0003888456269471874</v>
       </c>
       <c r="I25">
-        <v>0.001286784073500691</v>
+        <v>0.001798181762574735</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.2610867556314211</v>
+        <v>0.2257635445275383</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1239617577117063</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.05495826497148748</v>
       </c>
       <c r="N25">
-        <v>0.4255966974575358</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.434615301658539</v>
       </c>
       <c r="Q25">
-        <v>1.478074481975995</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>1.306142978388493</v>
       </c>
     </row>
   </sheetData>
